--- a/data/derived_data/proposed_iptds_sites_20240411.xlsx
+++ b/data/derived_data/proposed_iptds_sites_20240411.xlsx
@@ -1,28 +1,427 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\data\derived_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37717A46-FA5E-4E7B-9B09-80902A2BFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="lat_lon">Sheet2!$A$1:$C$104</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="122">
+  <si>
+    <t>site_code</t>
+  </si>
+  <si>
+    <t>recommendation</t>
+  </si>
+  <si>
+    <t>action_priority</t>
+  </si>
+  <si>
+    <t>upgrades</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>VC2</t>
+  </si>
+  <si>
+    <t>Continue Funding</t>
+  </si>
+  <si>
+    <t>YFK</t>
+  </si>
+  <si>
+    <t>Candidate for O&amp;M Project</t>
+  </si>
+  <si>
+    <t>Proposed New Site</t>
+  </si>
+  <si>
+    <t>USE</t>
+  </si>
+  <si>
+    <t>USI</t>
+  </si>
+  <si>
+    <t>Decommission, Remove, or Transfer</t>
+  </si>
+  <si>
+    <t>LLR</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>HYC</t>
+  </si>
+  <si>
+    <t>LRW</t>
+  </si>
+  <si>
+    <t>LLS</t>
+  </si>
+  <si>
+    <t>BTL</t>
+  </si>
+  <si>
+    <t>CAC</t>
+  </si>
+  <si>
+    <t>NFS</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>CHA (Proposed)</t>
+  </si>
+  <si>
+    <t>SRU (Proposed)</t>
+  </si>
+  <si>
+    <t>EFS (Proposed)</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>TAY</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>KRS</t>
+  </si>
+  <si>
+    <t>ESS</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+  </si>
+  <si>
+    <t>LSR (Proposed)</t>
+  </si>
+  <si>
+    <t>WB1</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>LRL</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>SC1</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>SC4</t>
+  </si>
+  <si>
+    <t>CRA</t>
+  </si>
+  <si>
+    <t>LC1</t>
+  </si>
+  <si>
+    <t>LC2</t>
+  </si>
+  <si>
+    <t>LAP</t>
+  </si>
+  <si>
+    <t>JUL</t>
+  </si>
+  <si>
+    <t>LAW</t>
+  </si>
+  <si>
+    <t>IR1</t>
+  </si>
+  <si>
+    <t>IR2</t>
+  </si>
+  <si>
+    <t>IR3</t>
+  </si>
+  <si>
+    <t>COC</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>UGR</t>
+  </si>
+  <si>
+    <t>WR1</t>
+  </si>
+  <si>
+    <t>WR2</t>
+  </si>
+  <si>
+    <t>MR1</t>
+  </si>
+  <si>
+    <t>WEN</t>
+  </si>
+  <si>
+    <t>JOC</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>ALP (Proposed)</t>
+  </si>
+  <si>
+    <t>SLT (Proposed)</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>LTR</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>UTR</t>
+  </si>
+  <si>
+    <t>TFH</t>
+  </si>
+  <si>
+    <t>TPJ</t>
+  </si>
+  <si>
+    <t>PWA</t>
+  </si>
+  <si>
+    <t>SWT</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>KHS</t>
+  </si>
+  <si>
+    <t>BBA</t>
+  </si>
+  <si>
+    <t>PCM</t>
+  </si>
+  <si>
+    <t>EPR</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>JA1</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>SIX</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>AFC</t>
+  </si>
+  <si>
+    <t>LGW</t>
+  </si>
+  <si>
+    <t>CCW</t>
+  </si>
+  <si>
+    <t>CCU</t>
+  </si>
+  <si>
+    <t>UGS</t>
+  </si>
+  <si>
+    <t>YPP</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>EVL</t>
+  </si>
+  <si>
+    <t>S3A</t>
+  </si>
+  <si>
+    <t>S2O</t>
+  </si>
+  <si>
+    <t>S3B</t>
+  </si>
+  <si>
+    <t>S2I</t>
+  </si>
+  <si>
+    <t>EVU</t>
+  </si>
+  <si>
+    <t>WPC</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>AGC</t>
+  </si>
+  <si>
+    <t>0HR</t>
+  </si>
+  <si>
+    <t>LB8</t>
+  </si>
+  <si>
+    <t>LBS</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>BTC</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>BTU</t>
+  </si>
+  <si>
+    <t>18M</t>
+  </si>
+  <si>
+    <t>HEC</t>
+  </si>
+  <si>
+    <t>CEY</t>
+  </si>
+  <si>
+    <t>VC1</t>
+  </si>
+  <si>
+    <t>RFL</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>IML</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>LSC</t>
+  </si>
+  <si>
+    <t>GCM</t>
+  </si>
+  <si>
+    <t>CZY</t>
+  </si>
+  <si>
+    <t>IR4</t>
+  </si>
+  <si>
+    <t>IR5</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -49,8 +448,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +739,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>44.221899999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-114.93146</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44.287737</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-114.72045300000001</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44.253700000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-114.35290000000001</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44.245899999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-114.30289999999999</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45.028530000000003</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-113.916319</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44.889763000000002</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-113.964145</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45.176475000000003</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-113.885278</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45.112189000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-113.746897</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44.861654000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-113.63193699999999</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44.865960000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-113.62472099999999</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44.780552</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-113.545027</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44.697567999999997</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-113.374118</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44.691090000000003</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-113.365281</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45.417558</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-113.994089</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45.295253000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-114.358101</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45.448700000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-114.9449</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44.408689000000003</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-115.179841</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45.103532000000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-114.85381700000001</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45.175659000000003</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-115.579712</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44.978471999999996</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-115.726994</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44.956204999999997</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-115.53315000000001</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>45.033299999999997</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-115.73302</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45.407130000000002</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-116.3293</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45.758183000000002</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-116.306603</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3">
+        <v>45.639099999999999</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-116.2645</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3">
+        <v>46.110317999999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-115.56588600000001</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>46.085934000000002</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-115.515533</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46.145727000000001</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-115.596497</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
+        <v>46.163820999999999</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-115.589663</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3">
+        <v>46.137022000000002</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-115.981313</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="3">
+        <v>46.127209000000001</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-115.97776</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="3">
+        <v>45.814145000000003</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-115.815972</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45.823500000000003</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-115.6341</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45.821492999999997</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-115.52766</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="3">
+        <v>46.294359999999998</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-115.97615999999999</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <v>46.290497999999999</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-115.933747</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="3">
+        <v>46.443272999999998</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-116.812535</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="3">
+        <v>46.565322999999999</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-116.709318</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="3">
+        <v>46.218468999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-116.02898500000001</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="3">
+        <v>45.761051999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-116.750231</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45.742702000000001</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-116.764304</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45.489956999999997</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-116.804096</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45.767740000000003</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-116.74403700000001</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45.506481999999998</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-116.850735</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45.593519999999998</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-117.903379</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45.633679000000001</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-117.733757</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45.594465999999997</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-117.579223</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45.619622999999997</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-117.72657</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45.946151</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-117.45412399999999</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>46.030237</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-117.016408</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>46.341368000000003</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-117.055707</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3">
+        <v>46.4054</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-117.22450000000001</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04CC73E-F91C-4FD4-BA9A-AAD1601CCBD9}">
+  <dimension ref="A1:C104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46.544192000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-118.16290100000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1">
+        <v>46.505239000000003</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-118.016274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1">
+        <v>46.415922000000002</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-117.738342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="1">
+        <v>46.309626999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-117.657161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1">
+        <v>46.204596000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-117.706176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="1">
+        <v>46.713909000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-117.684506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1">
+        <v>46.443272999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-116.812535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46.369216999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-116.79575699999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46.325991999999999</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-116.831974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="1">
+        <v>46.367061999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-116.735597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1">
+        <v>46.565322999999999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-116.709318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="1">
+        <v>46.619115000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-116.646846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="1">
+        <v>46.627882</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-116.650795</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="1">
+        <v>46.630673000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-116.596836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1">
+        <v>46.795090999999999</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-116.41088000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="1">
+        <v>46.799005999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-116.42841199999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1">
+        <v>46.503864</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-116.54975899999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1">
+        <v>46.294359999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-115.97615999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1">
+        <v>46.290497999999999</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-115.933747</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="1">
+        <v>46.524406999999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-116.582295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="1">
+        <v>46.301448000000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-116.13350699999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1">
+        <v>46.218468999999999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-116.02898500000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1">
+        <v>46.137022000000002</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-115.981313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="1">
+        <v>46.127209000000001</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-115.97776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="1">
+        <v>46.132739000000001</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-115.95018399999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="1">
+        <v>46.145727000000001</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-115.596497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="1">
+        <v>46.163820999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-115.589663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="1">
+        <v>46.110317999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-115.56588600000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1">
+        <v>46.085934000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-115.515533</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45.814145000000003</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-115.815972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45.823500000000003</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-115.6341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45.821492999999997</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-115.52766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="1">
+        <v>46.341368000000003</v>
+      </c>
+      <c r="C34" s="1">
+        <v>-117.055707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="1">
+        <v>46.325583999999999</v>
+      </c>
+      <c r="C35" s="1">
+        <v>-117.108679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1">
+        <v>46.288457999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>-117.28249700000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="1">
+        <v>46.272486999999998</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-117.292147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="1">
+        <v>46.030237</v>
+      </c>
+      <c r="C38" s="1">
+        <v>-117.016408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45.946151</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-117.45412399999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45.633679000000001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>-117.733757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45.619622999999997</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-117.72657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45.594465999999997</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-117.579223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45.735104999999997</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-117.863445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45.593519999999998</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-117.903379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45">
+        <v>45.190964000000001</v>
+      </c>
+      <c r="C45">
+        <v>-117.82861699999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45.215252</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-117.900689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45.248955000000002</v>
+      </c>
+      <c r="C47" s="1">
+        <v>-118.388958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45.758183000000002</v>
+      </c>
+      <c r="C48" s="1">
+        <v>-116.306603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45.175659000000003</v>
+      </c>
+      <c r="C49" s="1">
+        <v>-115.579712</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45.033299999999997</v>
+      </c>
+      <c r="C50" s="1">
+        <v>-115.73302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1">
+        <v>44.956204999999997</v>
+      </c>
+      <c r="C51" s="1">
+        <v>-115.53315000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="1">
+        <v>44.928995</v>
+      </c>
+      <c r="C52" s="1">
+        <v>-115.333883</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="1">
+        <v>44.978471999999996</v>
+      </c>
+      <c r="C53" s="1">
+        <v>-115.726994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45.103532000000001</v>
+      </c>
+      <c r="C54" s="1">
+        <v>-114.85381700000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44.427939000000002</v>
+      </c>
+      <c r="C55" s="1">
+        <v>-115.284171</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1">
+        <v>44.408689000000003</v>
+      </c>
+      <c r="C56" s="1">
+        <v>-115.179841</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45.295253000000002</v>
+      </c>
+      <c r="C57" s="1">
+        <v>-114.358101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45.417558</v>
+      </c>
+      <c r="C58" s="1">
+        <v>-113.994089</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45.246485</v>
+      </c>
+      <c r="C59" s="1">
+        <v>-113.893466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45.176475000000003</v>
+      </c>
+      <c r="C60" s="1">
+        <v>-113.885278</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45.115074</v>
+      </c>
+      <c r="C61" s="1">
+        <v>-113.774021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45.113169999999997</v>
+      </c>
+      <c r="C62" s="1">
+        <v>-113.7556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45.111257000000002</v>
+      </c>
+      <c r="C63" s="1">
+        <v>-113.74641800000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45.112769999999998</v>
+      </c>
+      <c r="C64" s="1">
+        <v>-113.74987</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45.112189000000001</v>
+      </c>
+      <c r="C65" s="1">
+        <v>-113.746897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45.109456999999999</v>
+      </c>
+      <c r="C66" s="1">
+        <v>-113.742696</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45.100087000000002</v>
+      </c>
+      <c r="C67" s="1">
+        <v>-113.72604200000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45.097937999999999</v>
+      </c>
+      <c r="C68" s="1">
+        <v>-113.72049699999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45.026792</v>
+      </c>
+      <c r="C69" s="1">
+        <v>-113.654847</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="1">
+        <v>44.956738999999999</v>
+      </c>
+      <c r="C70" s="1">
+        <v>-113.639543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="1">
+        <v>44.896909999999998</v>
+      </c>
+      <c r="C71" s="1">
+        <v>-113.62475000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="1">
+        <v>44.861654000000001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>-113.63193699999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1">
+        <v>44.865960000000001</v>
+      </c>
+      <c r="C73" s="1">
+        <v>-113.62472099999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1">
+        <v>44.780552</v>
+      </c>
+      <c r="C74" s="1">
+        <v>-113.545027</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="1">
+        <v>44.738218000000003</v>
+      </c>
+      <c r="C75" s="1">
+        <v>-113.462458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="1">
+        <v>44.727348999999997</v>
+      </c>
+      <c r="C76" s="1">
+        <v>-113.43321400000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="1">
+        <v>44.747073999999998</v>
+      </c>
+      <c r="C77" s="1">
+        <v>-113.47464100000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B78" s="1">
+        <v>44.688110000000002</v>
+      </c>
+      <c r="C78" s="1">
+        <v>-113.37041000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" s="1">
+        <v>44.697567999999997</v>
+      </c>
+      <c r="C79" s="1">
+        <v>-113.374118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="1">
+        <v>44.660443999999998</v>
+      </c>
+      <c r="C80" s="1">
+        <v>-113.377624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="1">
+        <v>44.613860000000003</v>
+      </c>
+      <c r="C81" s="1">
+        <v>-113.397036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="1">
+        <v>44.691090000000003</v>
+      </c>
+      <c r="C82" s="1">
+        <v>-113.365281</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="1">
+        <v>44.682794999999999</v>
+      </c>
+      <c r="C83" s="1">
+        <v>-113.35366</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="1">
+        <v>44.668593999999999</v>
+      </c>
+      <c r="C84" s="1">
+        <v>-113.31155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45.028530000000003</v>
+      </c>
+      <c r="C85" s="1">
+        <v>-113.916319</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" s="1">
+        <v>44.889763000000002</v>
+      </c>
+      <c r="C86" s="1">
+        <v>-113.964145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="1">
+        <v>44.287737</v>
+      </c>
+      <c r="C87" s="1">
+        <v>-114.72045300000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="1">
+        <v>44.339058999999999</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-114.72163999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>44.221899999999998</v>
+      </c>
+      <c r="C89" s="1">
+        <v>-114.93146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="1">
+        <v>44.218671999999998</v>
+      </c>
+      <c r="C90" s="1">
+        <v>-114.94215</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91" s="1">
+        <v>44.164726999999999</v>
+      </c>
+      <c r="C91" s="1">
+        <v>-114.90504300000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="1">
+        <v>44.153368999999998</v>
+      </c>
+      <c r="C92" s="1">
+        <v>-114.88377199999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45.767740000000003</v>
+      </c>
+      <c r="C93" s="1">
+        <v>-116.74403700000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45.194276000000002</v>
+      </c>
+      <c r="C94" s="1">
+        <v>-116.868663</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45.761051999999999</v>
+      </c>
+      <c r="C95" s="1">
+        <v>-116.750231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45.742702000000001</v>
+      </c>
+      <c r="C96" s="1">
+        <v>-116.764304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45.554828000000001</v>
+      </c>
+      <c r="C97" s="1">
+        <v>-116.872927</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45.516989000000002</v>
+      </c>
+      <c r="C98" s="1">
+        <v>-116.868492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45.506481999999998</v>
+      </c>
+      <c r="C99" s="1">
+        <v>-116.850735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45.489956999999997</v>
+      </c>
+      <c r="C100" s="1">
+        <v>-116.804096</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45.328017000000003</v>
+      </c>
+      <c r="C101" s="1">
+        <v>-116.806641</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45.229300000000002</v>
+      </c>
+      <c r="C102" s="1">
+        <v>-116.84478</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45.194459999999999</v>
+      </c>
+      <c r="C103" s="1">
+        <v>-116.868774</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45.193187999999999</v>
+      </c>
+      <c r="C104" s="1">
+        <v>-116.868593</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/derived_data/proposed_iptds_sites_20240411.xlsx
+++ b/data/derived_data/proposed_iptds_sites_20240411.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37717A46-FA5E-4E7B-9B09-80902A2BFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B549DD9-7E70-420F-89AD-4057410ADF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
   <si>
     <t>site_code</t>
   </si>
@@ -51,9 +51,6 @@
     <t>action_priority</t>
   </si>
   <si>
-    <t>upgrades</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>CHA (Proposed)</t>
   </si>
   <si>
-    <t>SRU (Proposed)</t>
-  </si>
-  <si>
     <t>EFS (Proposed)</t>
   </si>
   <si>
@@ -405,7 +399,55 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>temp</t>
+    <t>Alternative Locations: East Fork Salmon</t>
+  </si>
+  <si>
+    <t>Alternative Locations: Slate Creek, Whitebird Creek</t>
+  </si>
+  <si>
+    <t>USU (Proposed)</t>
+  </si>
+  <si>
+    <t>USI (Proposed)</t>
+  </si>
+  <si>
+    <t>Upgrade upstream and/or downstream array(s) to FS1001 MUX</t>
+  </si>
+  <si>
+    <t>Planned upsgrade to IS1001 MC</t>
+  </si>
+  <si>
+    <t>Consider decommissioning if LC1 can be converted to a two-pass configuration; alternatively, consider moving upstream to below core spawning areas</t>
+  </si>
+  <si>
+    <t>Consider upgrade to IS1001 MC if sufficient distance btw arrays can be achieved</t>
+  </si>
+  <si>
+    <t>Ideally, located below Morgan Creek and above population boundary. Locations near Challis, ID could also be considered</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>Upgrade to IS1001 MC to increase read range</t>
+  </si>
+  <si>
+    <t>Upgrade to IS1001 MC to span river and increase read range</t>
+  </si>
+  <si>
+    <t>Upgrade to IS1001 MC to spawn river and increase read range</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>Proposed site not necessary if weir is operated annually and is reliable</t>
+  </si>
+  <si>
+    <t>If not already, consider upgrade to IS1001 to increase read range</t>
+  </si>
+  <si>
+    <t>Move to lower boundary of CRSFC-s population</t>
   </si>
 </sst>
 </file>
@@ -740,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -753,12 +795,11 @@
     <col min="3" max="3" width="9.54296875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="2"/>
+    <col min="6" max="6" width="9.7265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -766,10 +807,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -777,16 +818,13 @@
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="3">
         <v>44.221899999999998</v>
@@ -794,22 +832,14 @@
       <c r="D2" s="3">
         <v>-114.93146</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>44.287737</v>
@@ -818,1163 +848,899 @@
         <v>-114.72045300000001</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44.677300000000002</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-114.0744</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44.253700000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-114.35290000000001</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44.245899999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-114.30289999999999</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45.028530000000003</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-113.916319</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44.889763000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-113.964145</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45.176475000000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-113.885278</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45.112189000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-113.746897</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44.861654000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-113.63193699999999</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44.865960000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-113.62472099999999</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44.780552</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-113.545027</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44.697567999999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>-113.374118</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44.691090000000003</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-113.365281</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45.417558</v>
+      </c>
+      <c r="D16" s="3">
+        <v>-113.994089</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45.295253000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>-114.358101</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45.448700000000002</v>
+      </c>
+      <c r="D18" s="3">
+        <v>-114.9449</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44.408689000000003</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-115.179841</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45.103532000000001</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-114.85381700000001</v>
+      </c>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>45.175659000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>-115.579712</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44.978471999999996</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-115.726994</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44.956204999999997</v>
+      </c>
+      <c r="D23" s="3">
+        <v>-115.53315000000001</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>45.033299999999997</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-115.73302</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>45.407130000000002</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-116.3293</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44.253700000000002</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-114.35290000000001</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>44.245899999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-114.30289999999999</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45.028530000000003</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-113.916319</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
-        <v>44.889763000000002</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-113.964145</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45.176475000000003</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-113.885278</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45.112189000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-113.746897</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44.861654000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>-113.63193699999999</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44.865960000000001</v>
-      </c>
-      <c r="D11" s="3">
-        <v>-113.62472099999999</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="3">
-        <v>44.780552</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-113.545027</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
-        <v>44.697567999999997</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-113.374118</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
-        <v>44.691090000000003</v>
-      </c>
-      <c r="D14" s="3">
-        <v>-113.365281</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>45.417558</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-113.994089</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="3">
-        <v>45.295253000000002</v>
-      </c>
-      <c r="D16" s="3">
-        <v>-114.358101</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="3">
-        <v>45.448700000000002</v>
-      </c>
-      <c r="D17" s="3">
-        <v>-114.9449</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>44.408689000000003</v>
-      </c>
-      <c r="D18" s="3">
-        <v>-115.179841</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
-        <v>45.103532000000001</v>
-      </c>
-      <c r="D19" s="3">
-        <v>-114.85381700000001</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3">
-        <v>45.175659000000003</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-115.579712</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>44.978471999999996</v>
-      </c>
-      <c r="D21" s="3">
-        <v>-115.726994</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>44.956204999999997</v>
-      </c>
-      <c r="D22" s="3">
-        <v>-115.53315000000001</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>45.033299999999997</v>
-      </c>
-      <c r="D23" s="3">
-        <v>-115.73302</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="3">
-        <v>45.407130000000002</v>
-      </c>
-      <c r="D24" s="3">
-        <v>-116.3293</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="3">
+      <c r="C26" s="3">
         <v>45.758183000000002</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D26" s="3">
         <v>-116.306603</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="3">
-        <v>45.639099999999999</v>
-      </c>
-      <c r="D26" s="3">
-        <v>-116.2645</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="3">
+        <v>45.639099999999999</v>
+      </c>
+      <c r="D27" s="3">
+        <v>-116.2645</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3">
         <v>46.110317999999999</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>-115.56588600000001</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="E28" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3">
+        <v>46.085934000000002</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-115.515533</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>46.145727000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>-115.596497</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>46.163820999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>-115.589663</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>46.137022000000002</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-115.981313</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3">
+        <v>46.127209000000001</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-115.97776</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
+        <v>45.814145000000003</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-115.815972</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3">
+        <v>45.823500000000003</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-115.6341</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>45.821492999999997</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-115.52766</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>46.294359999999998</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-115.97615999999999</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="3">
+        <v>46.290497999999999</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-115.933747</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3">
+        <v>46.443272999999998</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-116.812535</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3">
+        <v>46.565322999999999</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-116.709318</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3">
+        <v>46.218468999999999</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-116.02898500000001</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>45.761051999999999</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-116.750231</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>45.742702000000001</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-116.764304</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>45.489956999999997</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-116.804096</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3">
+        <v>45.767740000000003</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-116.74403700000001</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="3">
+        <v>45.506481999999998</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-116.850735</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="3">
+        <v>45.593519999999998</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-117.903379</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="3">
+        <v>45.633679000000001</v>
+      </c>
+      <c r="D48" s="3">
+        <v>-117.733757</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3">
+        <v>45.594465999999997</v>
+      </c>
+      <c r="D49" s="3">
+        <v>-117.579223</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3">
+        <v>45.619622999999997</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-117.72657</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>45.946151</v>
+      </c>
+      <c r="D51" s="3">
+        <v>-117.45412399999999</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3">
+        <v>46.030237</v>
+      </c>
+      <c r="D52" s="3">
+        <v>-117.016408</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="3">
+        <v>46.341368000000003</v>
+      </c>
+      <c r="D53" s="3">
+        <v>-117.055707</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="3">
-        <v>46.085934000000002</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-115.515533</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <v>46.145727000000001</v>
-      </c>
-      <c r="D29" s="3">
-        <v>-115.596497</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="3">
-        <v>46.163820999999999</v>
-      </c>
-      <c r="D30" s="3">
-        <v>-115.589663</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>46.137022000000002</v>
-      </c>
-      <c r="D31" s="3">
-        <v>-115.981313</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3">
-        <v>46.127209000000001</v>
-      </c>
-      <c r="D32" s="3">
-        <v>-115.97776</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="3">
-        <v>45.814145000000003</v>
-      </c>
-      <c r="D33" s="3">
-        <v>-115.815972</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="3">
-        <v>45.823500000000003</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-115.6341</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="3">
-        <v>45.821492999999997</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-115.52766</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="3">
-        <v>46.294359999999998</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-115.97615999999999</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3">
-        <v>46.290497999999999</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-115.933747</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="3">
-        <v>46.443272999999998</v>
-      </c>
-      <c r="D38" s="3">
-        <v>-116.812535</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="3">
-        <v>46.565322999999999</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-116.709318</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="3">
-        <v>46.218468999999999</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-116.02898500000001</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="3">
-        <v>45.761051999999999</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-116.750231</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="3">
-        <v>45.742702000000001</v>
-      </c>
-      <c r="D42" s="3">
-        <v>-116.764304</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3">
-        <v>45.489956999999997</v>
-      </c>
-      <c r="D43" s="3">
-        <v>-116.804096</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="3">
-        <v>45.767740000000003</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-116.74403700000001</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="3">
-        <v>45.506481999999998</v>
-      </c>
-      <c r="D45" s="3">
-        <v>-116.850735</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45.593519999999998</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-117.903379</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="3">
-        <v>45.633679000000001</v>
-      </c>
-      <c r="D47" s="3">
-        <v>-117.733757</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="3">
-        <v>45.594465999999997</v>
-      </c>
-      <c r="D48" s="3">
-        <v>-117.579223</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="3">
-        <v>45.619622999999997</v>
-      </c>
-      <c r="D49" s="3">
-        <v>-117.72657</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="3">
-        <v>45.946151</v>
-      </c>
-      <c r="D50" s="3">
-        <v>-117.45412399999999</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3">
-        <v>46.030237</v>
-      </c>
-      <c r="D51" s="3">
-        <v>-117.016408</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3">
-        <v>46.341368000000003</v>
-      </c>
-      <c r="D52" s="3">
-        <v>-117.055707</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="3">
+      <c r="C54" s="3">
         <v>46.4054</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="3">
         <v>-117.22450000000001</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>121</v>
+      <c r="E54" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2003,15 +1769,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>46.544192000000002</v>
@@ -2022,7 +1788,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>46.505239000000003</v>
@@ -2033,7 +1799,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1">
         <v>46.415922000000002</v>
@@ -2044,7 +1810,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="1">
         <v>46.309626999999999</v>
@@ -2055,7 +1821,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="1">
         <v>46.204596000000002</v>
@@ -2066,7 +1832,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="1">
         <v>46.713909000000001</v>
@@ -2077,7 +1843,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>46.443272999999998</v>
@@ -2088,7 +1854,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B9" s="1">
         <v>46.369216999999999</v>
@@ -2099,7 +1865,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="1">
         <v>46.325991999999999</v>
@@ -2110,7 +1876,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1">
         <v>46.367061999999997</v>
@@ -2121,7 +1887,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1">
         <v>46.565322999999999</v>
@@ -2132,7 +1898,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="1">
         <v>46.619115000000001</v>
@@ -2143,7 +1909,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1">
         <v>46.627882</v>
@@ -2154,7 +1920,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <v>46.630673000000002</v>
@@ -2165,7 +1931,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1">
         <v>46.795090999999999</v>
@@ -2176,7 +1942,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1">
         <v>46.799005999999999</v>
@@ -2187,7 +1953,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <v>46.503864</v>
@@ -2198,7 +1964,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="1">
         <v>46.294359999999998</v>
@@ -2209,7 +1975,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1">
         <v>46.290497999999999</v>
@@ -2220,7 +1986,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1">
         <v>46.524406999999997</v>
@@ -2231,7 +1997,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <v>46.301448000000001</v>
@@ -2242,7 +2008,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="1">
         <v>46.218468999999999</v>
@@ -2253,7 +2019,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>46.137022000000002</v>
@@ -2264,7 +2030,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>46.127209000000001</v>
@@ -2275,7 +2041,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1">
         <v>46.132739000000001</v>
@@ -2286,7 +2052,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="1">
         <v>46.145727000000001</v>
@@ -2297,7 +2063,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="1">
         <v>46.163820999999999</v>
@@ -2308,7 +2074,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>46.110317999999999</v>
@@ -2319,7 +2085,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>46.085934000000002</v>
@@ -2330,7 +2096,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B31" s="1">
         <v>45.814145000000003</v>
@@ -2341,7 +2107,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1">
         <v>45.823500000000003</v>
@@ -2352,7 +2118,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="1">
         <v>45.821492999999997</v>
@@ -2363,7 +2129,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1">
         <v>46.341368000000003</v>
@@ -2374,7 +2140,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1">
         <v>46.325583999999999</v>
@@ -2385,7 +2151,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="1">
         <v>46.288457999999999</v>
@@ -2396,7 +2162,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1">
         <v>46.272486999999998</v>
@@ -2407,7 +2173,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1">
         <v>46.030237</v>
@@ -2418,7 +2184,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1">
         <v>45.946151</v>
@@ -2429,7 +2195,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1">
         <v>45.633679000000001</v>
@@ -2440,7 +2206,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="1">
         <v>45.619622999999997</v>
@@ -2451,7 +2217,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1">
         <v>45.594465999999997</v>
@@ -2462,7 +2228,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B43" s="1">
         <v>45.735104999999997</v>
@@ -2473,7 +2239,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1">
         <v>45.593519999999998</v>
@@ -2484,7 +2250,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>45.190964000000001</v>
@@ -2495,7 +2261,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="1">
         <v>45.215252</v>
@@ -2506,7 +2272,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="1">
         <v>45.248955000000002</v>
@@ -2517,7 +2283,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48" s="1">
         <v>45.758183000000002</v>
@@ -2528,7 +2294,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1">
         <v>45.175659000000003</v>
@@ -2539,7 +2305,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B50" s="1">
         <v>45.033299999999997</v>
@@ -2550,7 +2316,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1">
         <v>44.956204999999997</v>
@@ -2561,7 +2327,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="1">
         <v>44.928995</v>
@@ -2572,7 +2338,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1">
         <v>44.978471999999996</v>
@@ -2583,7 +2349,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>45.103532000000001</v>
@@ -2594,7 +2360,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="1">
         <v>44.427939000000002</v>
@@ -2605,7 +2371,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1">
         <v>44.408689000000003</v>
@@ -2616,7 +2382,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1">
         <v>45.295253000000002</v>
@@ -2627,7 +2393,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" s="1">
         <v>45.417558</v>
@@ -2638,7 +2404,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B59" s="1">
         <v>45.246485</v>
@@ -2649,7 +2415,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1">
         <v>45.176475000000003</v>
@@ -2660,7 +2426,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" s="1">
         <v>45.115074</v>
@@ -2671,7 +2437,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" s="1">
         <v>45.113169999999997</v>
@@ -2682,7 +2448,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1">
         <v>45.111257000000002</v>
@@ -2693,7 +2459,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B64" s="1">
         <v>45.112769999999998</v>
@@ -2704,7 +2470,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65" s="1">
         <v>45.112189000000001</v>
@@ -2715,7 +2481,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B66" s="1">
         <v>45.109456999999999</v>
@@ -2726,7 +2492,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" s="1">
         <v>45.100087000000002</v>
@@ -2737,7 +2503,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" s="1">
         <v>45.097937999999999</v>
@@ -2748,7 +2514,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" s="1">
         <v>45.026792</v>
@@ -2759,7 +2525,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B70" s="1">
         <v>44.956738999999999</v>
@@ -2770,7 +2536,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1">
         <v>44.896909999999998</v>
@@ -2781,7 +2547,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1">
         <v>44.861654000000001</v>
@@ -2792,7 +2558,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" s="1">
         <v>44.865960000000001</v>
@@ -2803,7 +2569,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1">
         <v>44.780552</v>
@@ -2814,7 +2580,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1">
         <v>44.738218000000003</v>
@@ -2825,7 +2591,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B76" s="1">
         <v>44.727348999999997</v>
@@ -2836,7 +2602,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B77" s="1">
         <v>44.747073999999998</v>
@@ -2847,7 +2613,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B78" s="1">
         <v>44.688110000000002</v>
@@ -2858,7 +2624,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B79" s="1">
         <v>44.697567999999997</v>
@@ -2869,7 +2635,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1">
         <v>44.660443999999998</v>
@@ -2880,7 +2646,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1">
         <v>44.613860000000003</v>
@@ -2891,7 +2657,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1">
         <v>44.691090000000003</v>
@@ -2902,7 +2668,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B83" s="1">
         <v>44.682794999999999</v>
@@ -2913,7 +2679,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B84" s="1">
         <v>44.668593999999999</v>
@@ -2924,7 +2690,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" s="1">
         <v>45.028530000000003</v>
@@ -2935,7 +2701,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B86" s="1">
         <v>44.889763000000002</v>
@@ -2946,7 +2712,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1">
         <v>44.287737</v>
@@ -2957,7 +2723,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B88" s="1">
         <v>44.339058999999999</v>
@@ -2968,7 +2734,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1">
         <v>44.221899999999998</v>
@@ -2979,7 +2745,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B90" s="1">
         <v>44.218671999999998</v>
@@ -2990,7 +2756,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B91" s="1">
         <v>44.164726999999999</v>
@@ -3001,7 +2767,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B92" s="1">
         <v>44.153368999999998</v>
@@ -3012,7 +2778,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1">
         <v>45.767740000000003</v>
@@ -3023,7 +2789,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B94" s="1">
         <v>45.194276000000002</v>
@@ -3034,7 +2800,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B95" s="1">
         <v>45.761051999999999</v>
@@ -3045,7 +2811,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B96" s="1">
         <v>45.742702000000001</v>
@@ -3056,7 +2822,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B97" s="1">
         <v>45.554828000000001</v>
@@ -3067,7 +2833,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B98" s="1">
         <v>45.516989000000002</v>
@@ -3078,7 +2844,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B99" s="1">
         <v>45.506481999999998</v>
@@ -3089,7 +2855,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" s="1">
         <v>45.489956999999997</v>
@@ -3100,7 +2866,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B101" s="1">
         <v>45.328017000000003</v>
@@ -3111,7 +2877,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1">
         <v>45.229300000000002</v>
@@ -3122,7 +2888,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B103" s="1">
         <v>45.194459999999999</v>
@@ -3133,7 +2899,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B104" s="1">
         <v>45.193187999999999</v>

--- a/data/derived_data/proposed_iptds_sites_20240411.xlsx
+++ b/data/derived_data/proposed_iptds_sites_20240411.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B549DD9-7E70-420F-89AD-4057410ADF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5672E73D-78AE-4596-A5A5-ED3B97ED0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
   <si>
     <t>site_code</t>
   </si>
@@ -433,9 +433,6 @@
   </si>
   <si>
     <t>Upgrade to IS1001 MC to span river and increase read range</t>
-  </si>
-  <si>
-    <t>Upgrade to IS1001 MC to spawn river and increase read range</t>
   </si>
   <si>
     <t>HIGH</t>
@@ -785,7 +782,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E54"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -865,7 +862,7 @@
         <v>-114.0744</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>127</v>
@@ -885,7 +882,7 @@
         <v>-114.35290000000001</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>119</v>
@@ -905,7 +902,7 @@
         <v>-114.30289999999999</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,7 +1104,7 @@
         <v>-114.9449</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1224,7 +1221,7 @@
         <v>-116.3293</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>120</v>
@@ -1244,7 +1241,7 @@
         <v>-116.306603</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1261,7 +1258,7 @@
         <v>-116.2645</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1345,7 +1342,7 @@
         <v>128</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1362,10 +1359,10 @@
         <v>-115.97776</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1615,7 +1612,7 @@
         <v>128</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1635,7 +1632,7 @@
         <v>128</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1740,7 +1737,7 @@
         <v>128</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/derived_data/proposed_iptds_sites_20240411.xlsx
+++ b/data/derived_data/proposed_iptds_sites_20240411.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5672E73D-78AE-4596-A5A5-ED3B97ED0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B4F43-6DAA-445C-B33D-0E3E5EDECF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
   <si>
     <t>site_code</t>
   </si>
@@ -399,52 +399,70 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>Alternative Locations: East Fork Salmon</t>
-  </si>
-  <si>
-    <t>Alternative Locations: Slate Creek, Whitebird Creek</t>
-  </si>
-  <si>
     <t>USU (Proposed)</t>
   </si>
   <si>
     <t>USI (Proposed)</t>
   </si>
   <si>
-    <t>Upgrade upstream and/or downstream array(s) to FS1001 MUX</t>
-  </si>
-  <si>
-    <t>Planned upsgrade to IS1001 MC</t>
-  </si>
-  <si>
-    <t>Consider decommissioning if LC1 can be converted to a two-pass configuration; alternatively, consider moving upstream to below core spawning areas</t>
-  </si>
-  <si>
-    <t>Consider upgrade to IS1001 MC if sufficient distance btw arrays can be achieved</t>
-  </si>
-  <si>
-    <t>Ideally, located below Morgan Creek and above population boundary. Locations near Challis, ID could also be considered</t>
-  </si>
-  <si>
     <t>MED</t>
   </si>
   <si>
-    <t>Upgrade to IS1001 MC to increase read range</t>
-  </si>
-  <si>
-    <t>Upgrade to IS1001 MC to span river and increase read range</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
-    <t>Proposed site not necessary if weir is operated annually and is reliable</t>
-  </si>
-  <si>
-    <t>If not already, consider upgrade to IS1001 to increase read range</t>
-  </si>
-  <si>
-    <t>Move to lower boundary of CRSFC-s population</t>
+    <t>Ideally, located below Morgan Creek and above population boundary. Locations near Challis, ID could also be considered.</t>
+  </si>
+  <si>
+    <t>Upgrade to IS1001 MC to span river and increase read range.</t>
+  </si>
+  <si>
+    <t>Upgrade upstream and/or downstream array(s) to FS1001 MUX.</t>
+  </si>
+  <si>
+    <t>If not already, consider upgrade to IS1001 to increase read range.</t>
+  </si>
+  <si>
+    <t>Move to lower boundary of CRSFC-s population.</t>
+  </si>
+  <si>
+    <t>Consider decommissioning if LC1 can be converted to a two-pass configuration; alternatively, consider moving upstream to below core spawning areas.</t>
+  </si>
+  <si>
+    <t>Upgrade to IS1001 MC to increase read range.</t>
+  </si>
+  <si>
+    <t>Proposed site not necessary if weir is operated annually and is reliable.</t>
+  </si>
+  <si>
+    <t>If transfer to IPTDS O&amp;M project is not desired, ensure long-term funding.</t>
+  </si>
+  <si>
+    <t>Alternative locations: East Fork Salmon River.</t>
+  </si>
+  <si>
+    <t>Move upstream to proposed USI location.</t>
+  </si>
+  <si>
+    <t>Planned upsgrade to IS1001 MC. Alternatively, LLR could be considered for upgrade to IS1001 MC to increase juvenile detections.</t>
+  </si>
+  <si>
+    <t>Alternate locations: upper Chamberlain, Sabe, Bargamin, Warren, Crooked, or Sheep creeks.</t>
+  </si>
+  <si>
+    <t>Alternative locations: Slate Creek, Whitebird Creek.</t>
+  </si>
+  <si>
+    <t>Consider funding either SC3 or SC4 to provide detections to estimate abundance at SC2 at proposed new location.</t>
+  </si>
+  <si>
+    <t>Consider upgrade to IS1001 MC and tandem arrays if sufficient distance btw arrays can be achieved.</t>
+  </si>
+  <si>
+    <t>One of LAP, JUL, or LAW should be funded to provide monitoring in the CRLMA-s population. LAP or JUL would be preferred to continue time-series of estimates.</t>
+  </si>
+  <si>
+    <t>New site could be a single-pass array.</t>
   </si>
 </sst>
 </file>
@@ -782,7 +800,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -847,99 +865,105 @@
       <c r="E3" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>44.677300000000002</v>
+        <v>44.253700000000002</v>
       </c>
       <c r="D4" s="3">
-        <v>-114.0744</v>
+        <v>-114.35290000000001</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>44.253700000000002</v>
+        <v>44.245899999999999</v>
       </c>
       <c r="D5" s="3">
-        <v>-114.35290000000001</v>
+        <v>-114.30289999999999</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3">
-        <v>44.245899999999999</v>
+        <v>44.677300000000002</v>
       </c>
       <c r="D6" s="3">
-        <v>-114.30289999999999</v>
+        <v>-114.0744</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
-        <v>45.028530000000003</v>
+        <v>44.889763000000002</v>
       </c>
       <c r="D7" s="3">
-        <v>-113.916319</v>
+        <v>-113.964145</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>44.889763000000002</v>
+        <v>45.028530000000003</v>
       </c>
       <c r="D8" s="3">
-        <v>-113.964145</v>
+        <v>-113.916319</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1002,9 +1026,11 @@
       <c r="D12" s="3">
         <v>-113.62472099999999</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,6 +1115,9 @@
       <c r="E17" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
@@ -1104,7 +1133,10 @@
         <v>-114.9449</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1181,10 +1213,10 @@
         <v>-115.53315000000001</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1201,10 +1233,10 @@
         <v>-115.73302</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1221,10 +1253,10 @@
         <v>-116.3293</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1241,7 +1273,7 @@
         <v>-116.306603</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1258,7 +1290,7 @@
         <v>-116.2645</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1275,7 +1307,7 @@
         <v>-115.56588600000001</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1292,7 +1324,7 @@
         <v>-115.515533</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1339,10 +1371,10 @@
         <v>-115.981313</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1359,10 +1391,10 @@
         <v>-115.97776</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1379,7 +1411,10 @@
         <v>-115.815972</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,7 +1431,10 @@
         <v>-115.6341</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,10 +1468,10 @@
         <v>-115.97615999999999</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,10 +1488,10 @@
         <v>-115.933747</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,7 +1508,10 @@
         <v>-116.812535</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1487,7 +1528,10 @@
         <v>-116.709318</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1504,7 +1548,10 @@
         <v>-116.02898500000001</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1521,7 +1568,7 @@
         <v>-116.750231</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>129</v>
@@ -1609,10 +1656,10 @@
         <v>-117.903379</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1629,10 +1676,10 @@
         <v>-117.733757</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1651,6 +1698,9 @@
       <c r="E49" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="F49" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -1668,6 +1718,9 @@
       <c r="E50" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="F50" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -1683,7 +1736,10 @@
         <v>-117.45412399999999</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1734,10 +1790,10 @@
         <v>-117.22450000000001</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/data/derived_data/proposed_iptds_sites_20240411.xlsx
+++ b/data/derived_data/proposed_iptds_sites_20240411.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\SnakeR_IPTDS\data\derived_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7B4F43-6DAA-445C-B33D-0E3E5EDECF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23477C72-AB66-4ABB-87C4-967EE3A8549B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="143">
   <si>
     <t>site_code</t>
   </si>
@@ -444,9 +444,6 @@
     <t>Move upstream to proposed USI location.</t>
   </si>
   <si>
-    <t>Planned upsgrade to IS1001 MC. Alternatively, LLR could be considered for upgrade to IS1001 MC to increase juvenile detections.</t>
-  </si>
-  <si>
     <t>Alternate locations: upper Chamberlain, Sabe, Bargamin, Warren, Crooked, or Sheep creeks.</t>
   </si>
   <si>
@@ -463,13 +460,22 @@
   </si>
   <si>
     <t>New site could be a single-pass array.</t>
+  </si>
+  <si>
+    <t>Either LLR or both HYC and LRW could long-term be considered for consolidation to single-pass arrays, especially if sites(s) were upgraded with IS1001 MC(s).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planned upgrade to IS1001 MC. Alternatively, LLR could be considered for upgrade to IS1001 MC to increase juvenile detections. Either LLR or both HYC and LRW could long-term be considered for consolidation to single-pass arrays, especially if sites(s) were upgraded with IS1001 MC(s).   </t>
+  </si>
+  <si>
+    <t>If feasible, SW2 could be moved to the end of the Selway Road which would allow parsing of the SEMOO and SEUMA populations from SEMEA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +486,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -505,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +530,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +814,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -980,6 +994,9 @@
         <v>-113.885278</v>
       </c>
       <c r="E9" s="4"/>
+      <c r="F9" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1012,6 +1029,9 @@
         <v>-113.63193699999999</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1030,7 +1050,7 @@
         <v>121</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,7 +1156,7 @@
         <v>122</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1256,7 +1276,7 @@
         <v>122</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1326,6 +1346,9 @@
       <c r="E29" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="F29" s="5" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -1414,7 +1437,7 @@
         <v>121</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1434,7 +1457,7 @@
         <v>121</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1471,7 +1494,7 @@
         <v>121</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1511,7 +1534,7 @@
         <v>121</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1531,7 +1554,7 @@
         <v>121</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1551,7 +1574,7 @@
         <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1699,7 +1722,7 @@
         <v>118</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
